--- a/excel/region_16_VOC.xlsx
+++ b/excel/region_16_VOC.xlsx
@@ -16,12 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>PSPNet_VOC</t>
+  </si>
+  <si>
     <t>UNet_VOC</t>
   </si>
   <si>
-    <t>PSPNet_VOC</t>
-  </si>
-  <si>
     <t>SEGNet_VOC</t>
   </si>
   <si>
@@ -37,7 +37,7 @@
     <t>SEGNet_CITY</t>
   </si>
   <si>
-    <t>FCN_CITY</t>
+    <t>FCN_CITY_40</t>
   </si>
 </sst>
 </file>
@@ -429,210 +429,210 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>4.408721766582853</v>
+        <v>19.89041594565282</v>
       </c>
       <c r="B2">
-        <v>15.7546220604618</v>
+        <v>4.960132813851388</v>
       </c>
       <c r="C2">
-        <v>15.25185519935112</v>
+        <v>19.09319978936897</v>
       </c>
       <c r="D2">
-        <v>9.616402028726791</v>
+        <v>12.17013022877016</v>
       </c>
       <c r="E2">
-        <v>11.77531623182399</v>
+        <v>14.23738509715731</v>
       </c>
       <c r="F2">
-        <v>12.62687754388222</v>
+        <v>14.22308585016005</v>
       </c>
       <c r="G2">
-        <v>9.936208949151419</v>
+        <v>12.96536204143797</v>
       </c>
       <c r="H2">
-        <v>9.84502645657917</v>
+        <v>13.0100862405059</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>3.461021233571012</v>
+        <v>12.76628760215723</v>
       </c>
       <c r="B3">
-        <v>14.35444973496751</v>
+        <v>0.5562976477443218</v>
       </c>
       <c r="C3">
-        <v>11.45526773221537</v>
+        <v>6.502783539721594</v>
       </c>
       <c r="D3">
-        <v>8.147136673342557</v>
+        <v>6.322147966276011</v>
       </c>
       <c r="E3">
-        <v>9.295923393476118</v>
+        <v>3.591866721464648</v>
       </c>
       <c r="F3">
-        <v>9.682949617951119</v>
+        <v>3.520257103043176</v>
       </c>
       <c r="G3">
-        <v>9.388240325109741</v>
+        <v>4.2805394199913</v>
       </c>
       <c r="H3">
-        <v>9.155164087699541</v>
+        <v>6.072098574933139</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>2.731356253522108</v>
+        <v>8.121108301850642</v>
       </c>
       <c r="B4">
-        <v>7.191707767392703</v>
+        <v>4.265088066374037</v>
       </c>
       <c r="C4">
-        <v>11.58100109618745</v>
+        <v>14.23877697504497</v>
       </c>
       <c r="D4">
-        <v>6.580457408520019</v>
+        <v>9.651570964323129</v>
       </c>
       <c r="E4">
-        <v>7.216402906253134</v>
+        <v>8.877923957491932</v>
       </c>
       <c r="F4">
-        <v>5.604864103916425</v>
+        <v>8.762711830684522</v>
       </c>
       <c r="G4">
-        <v>6.112119137546456</v>
+        <v>9.016894388586657</v>
       </c>
       <c r="H4">
-        <v>8.904320195704482</v>
+        <v>5.7135712597131</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>2.75941782361764</v>
+        <v>1.836236288997706</v>
       </c>
       <c r="B5">
-        <v>5.410180697853783</v>
+        <v>1.398109883554056</v>
       </c>
       <c r="C5">
-        <v>8.354158922856273</v>
+        <v>4.383375387357632</v>
       </c>
       <c r="D5">
-        <v>5.243241883033814</v>
+        <v>2.187066744367016</v>
       </c>
       <c r="E5">
-        <v>6.465355463342577</v>
+        <v>1.974424271750894</v>
       </c>
       <c r="F5">
-        <v>6.013393906264977</v>
+        <v>2.577917651510517</v>
       </c>
       <c r="G5">
-        <v>4.883980221144242</v>
+        <v>2.653210024054906</v>
       </c>
       <c r="H5">
-        <v>7.388091771156219</v>
+        <v>1.875237881300469</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>3.390258414200582</v>
+        <v>9.363543704509549</v>
       </c>
       <c r="B6">
-        <v>7.734290802611232</v>
+        <v>4.120794990500544</v>
       </c>
       <c r="C6">
-        <v>22.62478988760671</v>
+        <v>24.43255629338217</v>
       </c>
       <c r="D6">
-        <v>10.22944053123237</v>
+        <v>13.76712636707561</v>
       </c>
       <c r="E6">
-        <v>17.25754028343582</v>
+        <v>14.70848639609901</v>
       </c>
       <c r="F6">
-        <v>4.651967671357733</v>
+        <v>5.491490832825304</v>
       </c>
       <c r="G6">
-        <v>25.96356748539417</v>
+        <v>27.34760700692321</v>
       </c>
       <c r="H6">
-        <v>5.259631124780705</v>
+        <v>6.239774092212763</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>2.175895091344911</v>
+        <v>4.808752746895595</v>
       </c>
       <c r="B7">
-        <v>6.105913770492568</v>
+        <v>0.8248475025478351</v>
       </c>
       <c r="C7">
-        <v>13.06878126853771</v>
+        <v>2.063052144605674</v>
       </c>
       <c r="D7">
-        <v>4.90076468575729</v>
+        <v>1.255336242536562</v>
       </c>
       <c r="E7">
-        <v>19.78562671197295</v>
+        <v>6.699606226779713</v>
       </c>
       <c r="F7">
-        <v>4.173938111153236</v>
+        <v>0.4814005388472829</v>
       </c>
       <c r="G7">
-        <v>13.74092843045641</v>
+        <v>11.10215606060278</v>
       </c>
       <c r="H7">
-        <v>3.584317573348311</v>
+        <v>1.240237413023411</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>3.462277983932561</v>
+        <v>9.628578730259443</v>
       </c>
       <c r="B8">
-        <v>8.734741259690958</v>
+        <v>3.704890580615899</v>
       </c>
       <c r="C8">
-        <v>6.434097990578542</v>
+        <v>9.403158706600582</v>
       </c>
       <c r="D8">
-        <v>12.77143104788449</v>
+        <v>14.99600787826867</v>
       </c>
       <c r="E8">
-        <v>17.60430890789103</v>
+        <v>20.53842786225686</v>
       </c>
       <c r="F8">
-        <v>12.5644523609726</v>
+        <v>16.05902417775972</v>
       </c>
       <c r="G8">
-        <v>8.511549156933681</v>
+        <v>10.76100530868005</v>
       </c>
       <c r="H8">
-        <v>9.566059298374071</v>
+        <v>13.0702662379484</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>2.432236520916681</v>
+        <v>4.360707204933814</v>
       </c>
       <c r="B9">
-        <v>8.100266144266055</v>
+        <v>0.7958465602713301</v>
       </c>
       <c r="C9">
-        <v>6.039184003476906</v>
+        <v>3.086506879797597</v>
       </c>
       <c r="D9">
-        <v>7.244540641065022</v>
+        <v>5.088029805828671</v>
       </c>
       <c r="E9">
-        <v>13.04285456794134</v>
+        <v>11.59347310217129</v>
       </c>
       <c r="F9">
-        <v>11.67007409533405</v>
+        <v>10.64390053850668</v>
       </c>
       <c r="G9">
-        <v>6.090186111776235</v>
+        <v>3.656646303853775</v>
       </c>
       <c r="H9">
-        <v>6.976288972502119</v>
+        <v>5.445608192093244</v>
       </c>
     </row>
   </sheetData>
